--- a/Mock Data/AEF ONLINE.xlsx
+++ b/Mock Data/AEF ONLINE.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="62">
   <si>
     <t xml:space="preserve">The information herein is For Official Use Only (FOUO) which must be protected under the FOIA and Privacy Act, as amended.  Unauthorized disclosure or misuse of this PERSONAL INFORMATION may result in criminal and/or civil penalties.</t>
   </si>
@@ -215,7 +215,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -253,12 +253,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -303,7 +297,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -313,10 +307,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -344,23 +334,23 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="17.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="17.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -473,9 +463,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>32</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>33</v>
@@ -517,9 +510,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>34</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>35</v>
@@ -561,9 +557,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>39</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>40</v>
@@ -605,9 +604,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>41</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>42</v>
@@ -649,9 +651,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>44</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>45</v>
@@ -697,6 +702,9 @@
       <c r="A10" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="B10" s="0" t="s">
+        <v>20</v>
+      </c>
       <c r="D10" s="0" t="s">
         <v>48</v>
       </c>
@@ -737,9 +745,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>50</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>51</v>
@@ -781,9 +792,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
         <v>52</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>53</v>
@@ -825,9 +839,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
         <v>54</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>42</v>
@@ -869,9 +886,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
         <v>55</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>33</v>
@@ -913,9 +933,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
         <v>56</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>35</v>
@@ -957,9 +980,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
         <v>58</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>40</v>
@@ -1001,9 +1027,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
         <v>59</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>42</v>
@@ -1045,9 +1074,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
         <v>60</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>45</v>
@@ -1089,9 +1121,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
         <v>61</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>48</v>

--- a/Mock Data/AEF ONLINE.xlsx
+++ b/Mock Data/AEF ONLINE.xlsx
@@ -79,7 +79,7 @@
     <t xml:space="preserve">ModeTip</t>
   </si>
   <si>
-    <t xml:space="preserve">SMITH, JOHN</t>
+    <t xml:space="preserve">SMITH JOHN</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -118,13 +118,13 @@
     <t xml:space="preserve">Member Started</t>
   </si>
   <si>
-    <t xml:space="preserve">CLARK, JOSHUA</t>
+    <t xml:space="preserve">CLARK JOSHUA</t>
   </si>
   <si>
     <t xml:space="preserve">E2</t>
   </si>
   <si>
-    <t xml:space="preserve">ALSOP, SOPHIE</t>
+    <t xml:space="preserve">ALSOP SOPHIE</t>
   </si>
   <si>
     <t xml:space="preserve">E1</t>
@@ -139,13 +139,13 @@
     <t xml:space="preserve">N</t>
   </si>
   <si>
-    <t xml:space="preserve">JONES, STEWART</t>
+    <t xml:space="preserve">JONES STEWART</t>
   </si>
   <si>
     <t xml:space="preserve">E4</t>
   </si>
   <si>
-    <t xml:space="preserve">MORGAN, CHRISTIAN</t>
+    <t xml:space="preserve">MORGAN CHRISTIAN</t>
   </si>
   <si>
     <t xml:space="preserve">E5</t>
@@ -154,7 +154,7 @@
     <t xml:space="preserve">1C075</t>
   </si>
   <si>
-    <t xml:space="preserve">HART, ANTHONY</t>
+    <t xml:space="preserve">HART ANTHONY</t>
   </si>
   <si>
     <t xml:space="preserve">E6</t>
@@ -163,7 +163,7 @@
     <t xml:space="preserve">3D074</t>
   </si>
   <si>
-    <t xml:space="preserve">HART, GRACE</t>
+    <t xml:space="preserve">HART GRACE</t>
   </si>
   <si>
     <t xml:space="preserve">E7</t>
@@ -172,40 +172,40 @@
     <t xml:space="preserve">3D094</t>
   </si>
   <si>
-    <t xml:space="preserve">CHURCHILL, OLIVIA</t>
+    <t xml:space="preserve">CHURCHILL OLIVIA</t>
   </si>
   <si>
     <t xml:space="preserve">E8</t>
   </si>
   <si>
-    <t xml:space="preserve">MCLEAN, ADRIAN</t>
+    <t xml:space="preserve">MCLEAN ADRIAN</t>
   </si>
   <si>
     <t xml:space="preserve">E9</t>
   </si>
   <si>
-    <t xml:space="preserve">MITCHELL, JUSTIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNDERWOOD, JULIAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAPMAN, NEIL</t>
+    <t xml:space="preserve">MITCHELL JUSTIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNDERWOOD JULIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAPMAN NEIL</t>
   </si>
   <si>
     <t xml:space="preserve">3D034</t>
   </si>
   <si>
-    <t xml:space="preserve">MURRAY, KEITH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LYMAN, ALEXANDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LYMAN, JULIAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THOMSON, KATHERINE</t>
+    <t xml:space="preserve">MURRAY KEITH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LYMAN ALEXANDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LYMAN JULIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THOMSON KATHERINE</t>
   </si>
 </sst>
 </file>
@@ -334,10 +334,10 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.09"/>
@@ -347,7 +347,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="17.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="17.52"/>
